--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48783\Desktop\mgr1\OESKlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5153B60-33C5-47D0-8794-5A5B8364407F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84C6CC8-08B1-4967-A613-E8FBBFFE9FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2EB115F-A871-483F-9529-A00E57D6095F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F2EB115F-A871-483F-9529-A00E57D6095F}"/>
   </bookViews>
   <sheets>
     <sheet name="java + mongo" sheetId="1" r:id="rId1"/>
-    <sheet name="python + mongodb" sheetId="2" r:id="rId2"/>
-    <sheet name="java + sqlite" sheetId="3" r:id="rId3"/>
+    <sheet name="java + sqlite" sheetId="3" r:id="rId2"/>
+    <sheet name="python + mongodb" sheetId="2" r:id="rId3"/>
     <sheet name="python + sqlit" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>50sample</t>
   </si>
@@ -130,6 +130,177 @@
   </si>
   <si>
     <t>373.5385060310364</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.01193931398417</t>
+  </si>
+  <si>
+    <t>36.66106152534485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.38665819168091 </t>
+  </si>
+  <si>
+    <t>115.32878613471985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.06847763061523 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">352.47862243652344 </t>
+  </si>
+  <si>
+    <t>17.274897959183672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.773741245269775 </t>
+  </si>
+  <si>
+    <t>69.74069285392761</t>
+  </si>
+  <si>
+    <t>106.62846446037292</t>
+  </si>
+  <si>
+    <t>174.75611996650696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350.57537627220154 </t>
+  </si>
+  <si>
+    <t>12.316269844227914</t>
+  </si>
+  <si>
+    <t>7.314816279840346</t>
+  </si>
+  <si>
+    <t>9.710078866600313</t>
+  </si>
+  <si>
+    <t>7.045536934599552</t>
+  </si>
+  <si>
+    <t>6.898553944993563</t>
+  </si>
+  <si>
+    <t>7.242685027827831</t>
+  </si>
+  <si>
+    <t>7.092981465313258</t>
+  </si>
+  <si>
+    <t>6.633591584686934</t>
+  </si>
+  <si>
+    <t>6.69075909719639</t>
+  </si>
+  <si>
+    <t>6.9595445271736445</t>
+  </si>
+  <si>
+    <t>7.0095655629522495</t>
+  </si>
+  <si>
+    <t>6.983071866832039</t>
+  </si>
+  <si>
+    <t>6.936131067033648</t>
+  </si>
+  <si>
+    <t>6.716395875390591</t>
+  </si>
+  <si>
+    <t>7.02385222406841</t>
+  </si>
+  <si>
+    <t>32.81776265187181</t>
+  </si>
+  <si>
+    <t>21.182863708533404</t>
+  </si>
+  <si>
+    <t>17.151256546600976</t>
+  </si>
+  <si>
+    <t>20.25529848746305</t>
+  </si>
+  <si>
+    <t>20.505779689474608</t>
+  </si>
+  <si>
+    <t>6.8440544E7</t>
+  </si>
+  <si>
+    <t>8.6591872E7</t>
+  </si>
+  <si>
+    <t>1.25411176E8</t>
+  </si>
+  <si>
+    <t>7.7147992E7</t>
+  </si>
+  <si>
+    <t>5.8728056E7</t>
+  </si>
+  <si>
+    <t>9.92135406090145</t>
+  </si>
+  <si>
+    <t>17.229558703766045</t>
+  </si>
+  <si>
+    <t>17.265243303428278</t>
+  </si>
+  <si>
+    <t>19.47870787666786</t>
+  </si>
+  <si>
+    <t>16.68054690699631</t>
+  </si>
+  <si>
+    <t>5.91798E7</t>
+  </si>
+  <si>
+    <t>8.2052296E7</t>
+  </si>
+  <si>
+    <t>1.20793912E8</t>
+  </si>
+  <si>
+    <t>6.415356E7</t>
+  </si>
+  <si>
+    <t>1.26788288E8</t>
+  </si>
+  <si>
+    <t>8.829841977379992</t>
+  </si>
+  <si>
+    <t>19.814031502484823</t>
+  </si>
+  <si>
+    <t>18.604212053286208</t>
+  </si>
+  <si>
+    <t>19.887425813697565</t>
+  </si>
+  <si>
+    <t>16.832699448100012</t>
+  </si>
+  <si>
+    <t>7.9884936E7</t>
+  </si>
+  <si>
+    <t>9.8397808E7</t>
+  </si>
+  <si>
+    <t>9.3829328E7</t>
+  </si>
+  <si>
+    <t>9.23114E7</t>
+  </si>
+  <si>
+    <t>1.02838688E8</t>
   </si>
 </sst>
 </file>
@@ -137,7 +308,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -171,7 +342,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -486,24 +657,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5BB9F7-B28B-4A5F-B0C6-3497BC3E7602}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G21:G22"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>40327664</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <v>71637304</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2">
+        <v>86495176</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>117405896</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>53266040</v>
+      </c>
+      <c r="I3">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3">
+        <v>70166144</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>53374376</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>55553544</v>
+      </c>
+      <c r="I4">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4">
+        <v>71931576</v>
+      </c>
+      <c r="M4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>40151744</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>57809880</v>
+      </c>
+      <c r="I5">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5">
+        <v>86347928</v>
+      </c>
+      <c r="M5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>44324216</v>
+      </c>
+      <c r="D6">
+        <v>153</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <v>69569536</v>
+      </c>
+      <c r="I6">
+        <v>157</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6">
+        <v>78805576</v>
+      </c>
+      <c r="M6">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2276E8E6-185C-428A-9EE2-1A99D0B4CD4D}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8435A31-D177-4564-AE34-59DF2A7AB7DC}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>3.411</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2">
+        <v>22.154</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2">
+        <v>23.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>8.3689999999999998</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3">
+        <v>6.9569999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>13.272</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>13.855</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4">
+        <v>12.612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>17.643999999999998</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5">
+        <v>18.986000000000001</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5">
+        <v>18.663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>34.869</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6">
+        <v>48.499000000000002</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6">
+        <v>47.911000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2276E8E6-185C-428A-9EE2-1A99D0B4CD4D}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +1054,7 @@
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -524,7 +1065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -537,8 +1078,26 @@
       <c r="D2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>20725760</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>20684800</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -551,8 +1110,26 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>20725760</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>20684800</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -565,8 +1142,26 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>20725760</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>20684800</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -579,8 +1174,26 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>20725760</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>20684800</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -593,20 +1206,26 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>20725760</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>20684800</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8435A31-D177-4564-AE34-59DF2A7AB7DC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48783\Desktop\mgr1\OESKlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84C6CC8-08B1-4967-A613-E8FBBFFE9FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF12DBAC-6AF4-436A-89D8-7E85549C3F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F2EB115F-A871-483F-9529-A00E57D6095F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2EB115F-A871-483F-9529-A00E57D6095F}"/>
   </bookViews>
   <sheets>
     <sheet name="java + mongo" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="117">
   <si>
     <t>50sample</t>
   </si>
@@ -228,21 +228,6 @@
     <t>20.505779689474608</t>
   </si>
   <si>
-    <t>6.8440544E7</t>
-  </si>
-  <si>
-    <t>8.6591872E7</t>
-  </si>
-  <si>
-    <t>1.25411176E8</t>
-  </si>
-  <si>
-    <t>7.7147992E7</t>
-  </si>
-  <si>
-    <t>5.8728056E7</t>
-  </si>
-  <si>
     <t>9.92135406090145</t>
   </si>
   <si>
@@ -258,21 +243,6 @@
     <t>16.68054690699631</t>
   </si>
   <si>
-    <t>5.91798E7</t>
-  </si>
-  <si>
-    <t>8.2052296E7</t>
-  </si>
-  <si>
-    <t>1.20793912E8</t>
-  </si>
-  <si>
-    <t>6.415356E7</t>
-  </si>
-  <si>
-    <t>1.26788288E8</t>
-  </si>
-  <si>
     <t>8.829841977379992</t>
   </si>
   <si>
@@ -288,19 +258,133 @@
     <t>16.832699448100012</t>
   </si>
   <si>
-    <t>7.9884936E7</t>
-  </si>
-  <si>
-    <t>9.8397808E7</t>
-  </si>
-  <si>
-    <t>9.3829328E7</t>
-  </si>
-  <si>
-    <t>9.23114E7</t>
-  </si>
-  <si>
-    <t>1.02838688E8</t>
+    <t>10.407378912159231</t>
+  </si>
+  <si>
+    <t>20.732602533351866</t>
+  </si>
+  <si>
+    <t>18.18524099180816</t>
+  </si>
+  <si>
+    <t>19.154777333389095</t>
+  </si>
+  <si>
+    <t>19.877437159411823</t>
+  </si>
+  <si>
+    <t>6.818333552199131</t>
+  </si>
+  <si>
+    <t>19.42797649700731</t>
+  </si>
+  <si>
+    <t>18.2935707561118</t>
+  </si>
+  <si>
+    <t>16.485329997676203</t>
+  </si>
+  <si>
+    <t>13.962003262966313</t>
+  </si>
+  <si>
+    <t>11.743329014325608</t>
+  </si>
+  <si>
+    <t>7.920728867826764</t>
+  </si>
+  <si>
+    <t>9.334226614569697</t>
+  </si>
+  <si>
+    <t>6.916771159927623</t>
+  </si>
+  <si>
+    <t>6.807455171851016</t>
+  </si>
+  <si>
+    <t>6.49183473772898</t>
+  </si>
+  <si>
+    <t>6.424116278543536</t>
+  </si>
+  <si>
+    <t>7.031088643081553</t>
+  </si>
+  <si>
+    <t>6.872842801651331</t>
+  </si>
+  <si>
+    <t>6.771937602921146</t>
+  </si>
+  <si>
+    <t>16.97822477650064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.68887186050415 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.78705620765686 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.38921618461609 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.1808841228485 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">370.36351442337036 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.278196573257446 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.56822991371155 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.88442587852478 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.12430453300476 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">375.4046232700348 </t>
+  </si>
+  <si>
+    <t>23.31692399049881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.689518451690674 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.94964933395386 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.62365508079529 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.32570910453796 </t>
+  </si>
+  <si>
+    <t>188.43611240386963</t>
+  </si>
+  <si>
+    <t>24.743575063613232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.26872181892395 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.962971925735474 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.210859537124634 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.10863661766052 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.0900731086731  </t>
   </si>
 </sst>
 </file>
@@ -657,21 +741,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5BB9F7-B28B-4A5F-B0C6-3497BC3E7602}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
     <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -843,6 +928,108 @@
       </c>
       <c r="M6">
         <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>38224640</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>39619288</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10">
+        <v>80776408</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>41864496</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>50487784</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>50508008</v>
+      </c>
+      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <v>52331200</v>
+      </c>
+      <c r="I12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>45955296</v>
+      </c>
+      <c r="D13">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13">
+        <v>77217208</v>
+      </c>
+      <c r="I13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14">
+        <v>101150800</v>
+      </c>
+      <c r="I14">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -852,15 +1039,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8435A31-D177-4564-AE34-59DF2A7AB7DC}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
+    <col min="13" max="13" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -881,26 +1071,26 @@
       <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
+      <c r="C2">
+        <v>68440544</v>
       </c>
       <c r="D2">
         <v>3.411</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="H2">
+        <v>59179800</v>
       </c>
       <c r="I2">
         <v>22.154</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="M2">
+        <v>79884930</v>
       </c>
       <c r="N2">
         <v>23.625</v>
@@ -913,26 +1103,26 @@
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
-        <v>65</v>
+      <c r="C3">
+        <v>86591872</v>
       </c>
       <c r="D3">
         <v>6.9619999999999997</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="H3">
+        <v>82052296</v>
       </c>
       <c r="I3">
         <v>8.3689999999999998</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="M3">
+        <v>98397808</v>
       </c>
       <c r="N3">
         <v>6.9569999999999999</v>
@@ -945,26 +1135,26 @@
       <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
-        <v>66</v>
+      <c r="C4">
+        <v>125411176</v>
       </c>
       <c r="D4">
         <v>13.272</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="H4">
+        <v>120793912</v>
       </c>
       <c r="I4">
         <v>13.855</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="M4">
+        <v>93829328</v>
       </c>
       <c r="N4">
         <v>12.612</v>
@@ -977,26 +1167,26 @@
       <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C5" t="s">
-        <v>67</v>
+      <c r="C5">
+        <v>77147992</v>
       </c>
       <c r="D5">
         <v>17.643999999999998</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="H5">
+        <v>64153560</v>
       </c>
       <c r="I5">
         <v>18.986000000000001</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="s">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="M5">
+        <v>92311400</v>
       </c>
       <c r="N5">
         <v>18.663</v>
@@ -1009,29 +1199,144 @@
       <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
+      <c r="C6">
+        <v>58728056</v>
       </c>
       <c r="D6">
         <v>34.869</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
+        <v>68</v>
+      </c>
+      <c r="H6">
+        <v>126788288</v>
       </c>
       <c r="I6">
         <v>48.499000000000002</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="M6">
+        <v>102838688</v>
       </c>
       <c r="N6">
         <v>47.911000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>93268728</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9">
+        <v>64529880</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>88182080</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>66743488</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>84736032</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11">
+        <v>64023280</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>43233144</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12">
+        <v>69757192</v>
+      </c>
+      <c r="I12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>42422160</v>
+      </c>
+      <c r="D13">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13">
+        <v>98141912</v>
+      </c>
+      <c r="I13">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1041,17 +1346,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2276E8E6-185C-428A-9EE2-1A99D0B4CD4D}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:XFD1048576"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1223,6 +1530,146 @@
       </c>
       <c r="M6" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>20668416</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>20668416</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>20668416</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11">
+        <v>20668416</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12">
+        <v>20668416</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14">
+        <v>20668416</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>20668416</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16">
+        <v>20668416</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>20668416</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18">
+        <v>20668416</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1232,16 +1679,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1962E622-2799-4935-BC50-1516B9D64079}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:XFD1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1416,6 +1864,116 @@
         <v>25</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>17842176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>17842176</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>17842176</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>17842176</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>17842176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17">
+        <v>17866752</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>17866752</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19">
+        <v>17866752</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>17866752</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>17866752</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48783\Desktop\mgr1\OESKlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF12DBAC-6AF4-436A-89D8-7E85549C3F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE4E0C8-2A04-499D-A06A-8541C992FA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2EB115F-A871-483F-9529-A00E57D6095F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="python + mongodb" sheetId="2" r:id="rId3"/>
     <sheet name="python + sqlit" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="16">
   <si>
     <t>50sample</t>
   </si>
@@ -60,331 +60,28 @@
     <t>500sample</t>
   </si>
   <si>
-    <t>24.763592896174863</t>
+    <t>Wyniki</t>
   </si>
   <si>
-    <t>18.401009559631348</t>
+    <t>srednie cpu</t>
   </si>
   <si>
-    <t>35.17585849761963</t>
+    <t>srednia memory</t>
   </si>
   <si>
-    <t xml:space="preserve">51.85336947441101 </t>
+    <t>sredni czas</t>
   </si>
   <si>
-    <t>86.74552321434021</t>
+    <t>Odchylenie standardowe</t>
   </si>
   <si>
-    <t>172.6887731552124</t>
+    <t>s cpu</t>
   </si>
   <si>
-    <t>23.31517199017199</t>
+    <t>s memory</t>
   </si>
   <si>
-    <t>37.05656576156616</t>
-  </si>
-  <si>
-    <t>35.09952187538147</t>
-  </si>
-  <si>
-    <t>51.873873472213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.58920168876648 </t>
-  </si>
-  <si>
-    <t>184.22116613388062</t>
-  </si>
-  <si>
-    <t>24.668684210526315</t>
-  </si>
-  <si>
-    <t>19.359236001968384</t>
-  </si>
-  <si>
-    <t>35.932257413864136</t>
-  </si>
-  <si>
-    <t>53.34846305847168</t>
-  </si>
-  <si>
-    <t>94.77955746650696</t>
-  </si>
-  <si>
-    <t>175.6058897972107</t>
-  </si>
-  <si>
-    <t>16.89256844850065</t>
-  </si>
-  <si>
-    <t>40.50157403945923</t>
-  </si>
-  <si>
-    <t>73.37676119804382</t>
-  </si>
-  <si>
-    <t>105.53714394569397</t>
-  </si>
-  <si>
-    <t>179.15234446525574</t>
-  </si>
-  <si>
-    <t>373.5385060310364</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17.01193931398417</t>
-  </si>
-  <si>
-    <t>36.66106152534485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.38665819168091 </t>
-  </si>
-  <si>
-    <t>115.32878613471985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.06847763061523 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">352.47862243652344 </t>
-  </si>
-  <si>
-    <t>17.274897959183672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.773741245269775 </t>
-  </si>
-  <si>
-    <t>69.74069285392761</t>
-  </si>
-  <si>
-    <t>106.62846446037292</t>
-  </si>
-  <si>
-    <t>174.75611996650696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350.57537627220154 </t>
-  </si>
-  <si>
-    <t>12.316269844227914</t>
-  </si>
-  <si>
-    <t>7.314816279840346</t>
-  </si>
-  <si>
-    <t>9.710078866600313</t>
-  </si>
-  <si>
-    <t>7.045536934599552</t>
-  </si>
-  <si>
-    <t>6.898553944993563</t>
-  </si>
-  <si>
-    <t>7.242685027827831</t>
-  </si>
-  <si>
-    <t>7.092981465313258</t>
-  </si>
-  <si>
-    <t>6.633591584686934</t>
-  </si>
-  <si>
-    <t>6.69075909719639</t>
-  </si>
-  <si>
-    <t>6.9595445271736445</t>
-  </si>
-  <si>
-    <t>7.0095655629522495</t>
-  </si>
-  <si>
-    <t>6.983071866832039</t>
-  </si>
-  <si>
-    <t>6.936131067033648</t>
-  </si>
-  <si>
-    <t>6.716395875390591</t>
-  </si>
-  <si>
-    <t>7.02385222406841</t>
-  </si>
-  <si>
-    <t>32.81776265187181</t>
-  </si>
-  <si>
-    <t>21.182863708533404</t>
-  </si>
-  <si>
-    <t>17.151256546600976</t>
-  </si>
-  <si>
-    <t>20.25529848746305</t>
-  </si>
-  <si>
-    <t>20.505779689474608</t>
-  </si>
-  <si>
-    <t>9.92135406090145</t>
-  </si>
-  <si>
-    <t>17.229558703766045</t>
-  </si>
-  <si>
-    <t>17.265243303428278</t>
-  </si>
-  <si>
-    <t>19.47870787666786</t>
-  </si>
-  <si>
-    <t>16.68054690699631</t>
-  </si>
-  <si>
-    <t>8.829841977379992</t>
-  </si>
-  <si>
-    <t>19.814031502484823</t>
-  </si>
-  <si>
-    <t>18.604212053286208</t>
-  </si>
-  <si>
-    <t>19.887425813697565</t>
-  </si>
-  <si>
-    <t>16.832699448100012</t>
-  </si>
-  <si>
-    <t>10.407378912159231</t>
-  </si>
-  <si>
-    <t>20.732602533351866</t>
-  </si>
-  <si>
-    <t>18.18524099180816</t>
-  </si>
-  <si>
-    <t>19.154777333389095</t>
-  </si>
-  <si>
-    <t>19.877437159411823</t>
-  </si>
-  <si>
-    <t>6.818333552199131</t>
-  </si>
-  <si>
-    <t>19.42797649700731</t>
-  </si>
-  <si>
-    <t>18.2935707561118</t>
-  </si>
-  <si>
-    <t>16.485329997676203</t>
-  </si>
-  <si>
-    <t>13.962003262966313</t>
-  </si>
-  <si>
-    <t>11.743329014325608</t>
-  </si>
-  <si>
-    <t>7.920728867826764</t>
-  </si>
-  <si>
-    <t>9.334226614569697</t>
-  </si>
-  <si>
-    <t>6.916771159927623</t>
-  </si>
-  <si>
-    <t>6.807455171851016</t>
-  </si>
-  <si>
-    <t>6.49183473772898</t>
-  </si>
-  <si>
-    <t>6.424116278543536</t>
-  </si>
-  <si>
-    <t>7.031088643081553</t>
-  </si>
-  <si>
-    <t>6.872842801651331</t>
-  </si>
-  <si>
-    <t>6.771937602921146</t>
-  </si>
-  <si>
-    <t>16.97822477650064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.68887186050415 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.78705620765686 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.38921618461609 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.1808841228485 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">370.36351442337036 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.278196573257446 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.56822991371155 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.88442587852478 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.12430453300476 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">375.4046232700348 </t>
-  </si>
-  <si>
-    <t>23.31692399049881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.689518451690674 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.94964933395386 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.62365508079529 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.32570910453796 </t>
-  </si>
-  <si>
-    <t>188.43611240386963</t>
-  </si>
-  <si>
-    <t>24.743575063613232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.26872181892395 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.962971925735474 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.210859537124634 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.10863661766052 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.0900731086731  </t>
+    <t>s czas</t>
   </si>
 </sst>
 </file>
@@ -392,9 +89,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,14 +126,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,18 +452,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5BB9F7-B28B-4A5F-B0C6-3497BC3E7602}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E17" sqref="E17:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="18.109375" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" customWidth="1"/>
     <col min="11" max="11" width="21.44140625" customWidth="1"/>
@@ -769,13 +481,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
+      <c r="B2" s="2">
+        <v>12.3162698442279</v>
       </c>
       <c r="C2">
         <v>40327664</v>
@@ -783,8 +496,8 @@
       <c r="D2">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>49</v>
+      <c r="G2" s="2">
+        <v>7.2426850278278296</v>
       </c>
       <c r="H2">
         <v>71637304</v>
@@ -792,8 +505,8 @@
       <c r="I2">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>54</v>
+      <c r="K2" s="2">
+        <v>7.0095655629522398</v>
       </c>
       <c r="L2">
         <v>86495176</v>
@@ -806,8 +519,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
+      <c r="B3" s="2">
+        <v>7.3148162798403398</v>
       </c>
       <c r="C3">
         <v>117405896</v>
@@ -815,8 +528,8 @@
       <c r="D3">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
-        <v>50</v>
+      <c r="G3" s="2">
+        <v>7.0929814653132501</v>
       </c>
       <c r="H3">
         <v>53266040</v>
@@ -824,8 +537,8 @@
       <c r="I3">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
-        <v>55</v>
+      <c r="K3" s="2">
+        <v>6.98307186683203</v>
       </c>
       <c r="L3">
         <v>70166144</v>
@@ -838,8 +551,8 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
+      <c r="B4" s="2">
+        <v>9.1007886660031296</v>
       </c>
       <c r="C4">
         <v>53374376</v>
@@ -847,8 +560,8 @@
       <c r="D4">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
-        <v>51</v>
+      <c r="G4" s="2">
+        <v>6.63359158468693</v>
       </c>
       <c r="H4">
         <v>55553544</v>
@@ -856,8 +569,8 @@
       <c r="I4">
         <v>47</v>
       </c>
-      <c r="K4" t="s">
-        <v>56</v>
+      <c r="K4" s="2">
+        <v>6.9361310670336396</v>
       </c>
       <c r="L4">
         <v>71931576</v>
@@ -870,8 +583,8 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
+      <c r="B5" s="2">
+        <v>7.04553693459955</v>
       </c>
       <c r="C5">
         <v>40151744</v>
@@ -879,8 +592,8 @@
       <c r="D5">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>52</v>
+      <c r="G5" s="2">
+        <v>6.6907590971963904</v>
       </c>
       <c r="H5">
         <v>57809880</v>
@@ -888,8 +601,8 @@
       <c r="I5">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
-        <v>57</v>
+      <c r="K5" s="2">
+        <v>6.7163958753905897</v>
       </c>
       <c r="L5">
         <v>86347928</v>
@@ -902,8 +615,8 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
+      <c r="B6" s="2">
+        <v>6.8985539449935596</v>
       </c>
       <c r="C6">
         <v>44324216</v>
@@ -911,8 +624,8 @@
       <c r="D6">
         <v>153</v>
       </c>
-      <c r="G6" t="s">
-        <v>53</v>
+      <c r="G6" s="2">
+        <v>6.95954452717364</v>
       </c>
       <c r="H6">
         <v>69569536</v>
@@ -920,8 +633,8 @@
       <c r="I6">
         <v>157</v>
       </c>
-      <c r="K6" t="s">
-        <v>58</v>
+      <c r="K6" s="2">
+        <v>7.0238522240684098</v>
       </c>
       <c r="L6">
         <v>78805576</v>
@@ -930,9 +643,19 @@
         <v>148</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="K8" s="4"/>
+    </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>84</v>
+      <c r="B9" s="2">
+        <v>11.7433290143256</v>
       </c>
       <c r="C9">
         <v>38224640</v>
@@ -940,10 +663,19 @@
       <c r="D9">
         <v>17</v>
       </c>
+      <c r="G9" s="2">
+        <v>6.49183473772898</v>
+      </c>
+      <c r="H9">
+        <v>80776408</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>85</v>
+      <c r="B10" s="2">
+        <v>7.9207288678267602</v>
       </c>
       <c r="C10">
         <v>39619288</v>
@@ -951,19 +683,19 @@
       <c r="D10">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
-        <v>89</v>
+      <c r="G10" s="2">
+        <v>6.4241162785435302</v>
       </c>
       <c r="H10">
-        <v>80776408</v>
+        <v>50487784</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>86</v>
+      <c r="B11" s="2">
+        <v>9.3342266145696904</v>
       </c>
       <c r="C11">
         <v>41864496</v>
@@ -971,19 +703,19 @@
       <c r="D11">
         <v>48</v>
       </c>
-      <c r="G11" t="s">
-        <v>90</v>
+      <c r="G11" s="2">
+        <v>7.0310886430815502</v>
       </c>
       <c r="H11">
-        <v>50487784</v>
+        <v>52331200</v>
       </c>
       <c r="I11">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>87</v>
+      <c r="B12" s="2">
+        <v>6.9167711599276203</v>
       </c>
       <c r="C12">
         <v>50508008</v>
@@ -991,19 +723,19 @@
       <c r="D12">
         <v>78</v>
       </c>
-      <c r="G12" t="s">
-        <v>91</v>
+      <c r="G12" s="2">
+        <v>6.8728428016513297</v>
       </c>
       <c r="H12">
-        <v>52331200</v>
+        <v>77217208</v>
       </c>
       <c r="I12">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>88</v>
+      <c r="B13" s="2">
+        <v>6.8074551718510099</v>
       </c>
       <c r="C13">
         <v>45955296</v>
@@ -1011,25 +743,190 @@
       <c r="D13">
         <v>155</v>
       </c>
-      <c r="G13" t="s">
-        <v>92</v>
+      <c r="G13" s="2">
+        <v>6.77193760292114</v>
       </c>
       <c r="H13">
-        <v>77217208</v>
+        <v>101150800</v>
       </c>
       <c r="I13">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14">
-        <v>101150800</v>
-      </c>
-      <c r="I14">
-        <v>164</v>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <f>AVERAGE(B2,G2,K2,B9,G9)</f>
+        <v>8.960736837412508</v>
+      </c>
+      <c r="C17" s="5">
+        <f>AVERAGE(C2,H2,L2,C9,H9)</f>
+        <v>63492238.399999999</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" ref="C17:D21" si="0">AVERAGE(D2,I2,M2,D9,I9)</f>
+        <v>15.2</v>
+      </c>
+      <c r="E17" s="5">
+        <f>STDEVA(B2,G2,K2,B9,G9)</f>
+        <v>2.8220856614994623</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17:G21" si="1">STDEVA(C2,H2,L2,C9,H9)</f>
+        <v>22744608.07892818</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0954451150103324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <f>AVERAGE(B3,G3,K3,B10,G10)</f>
+        <v>7.1471429516711824</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>66189030.399999999</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:E21" si="2">STDEVA(B3,G3,K3,B10,G10)</f>
+        <v>0.5429479423002781</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>30653175.957272895</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5811388300841898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" ref="B18:B21" si="3">AVERAGE(B4,G4,K4,B11,G11)</f>
+        <v>7.8071653150749878</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>55011038.399999999</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>45.4</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.298426793201227</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="1"/>
+        <v>10831558.979848331</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0736441353327724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="3"/>
+        <v>6.8484611737530958</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>62406953.600000001</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1469785371110483</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="1"/>
+        <v>19042887.366610691</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>3.049590136395381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="3"/>
+        <v>6.8922686942015519</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>67961084.799999997</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>155.4</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10434638531601098</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="1"/>
+        <v>23794451.071023829</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
+        <v>5.8566201857385289</v>
       </c>
     </row>
   </sheetData>
@@ -1039,18 +936,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8435A31-D177-4564-AE34-59DF2A7AB7DC}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E15" sqref="E15:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="28.88671875" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="45.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1063,13 +964,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
+      <c r="B2" s="5">
+        <v>32.817762651871803</v>
       </c>
       <c r="C2">
         <v>68440544</v>
@@ -1077,8 +979,8 @@
       <c r="D2">
         <v>3.411</v>
       </c>
-      <c r="G2" t="s">
-        <v>64</v>
+      <c r="G2" s="5">
+        <v>9.9213540609014501</v>
       </c>
       <c r="H2">
         <v>59179800</v>
@@ -1086,8 +988,8 @@
       <c r="I2">
         <v>22.154</v>
       </c>
-      <c r="L2" t="s">
-        <v>69</v>
+      <c r="L2" s="5">
+        <v>8.8298419773799903</v>
       </c>
       <c r="M2">
         <v>79884930</v>
@@ -1100,8 +1002,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
+      <c r="B3" s="5">
+        <v>21.1828637085334</v>
       </c>
       <c r="C3">
         <v>86591872</v>
@@ -1109,8 +1011,8 @@
       <c r="D3">
         <v>6.9619999999999997</v>
       </c>
-      <c r="G3" t="s">
-        <v>65</v>
+      <c r="G3" s="5">
+        <v>17.229558703765999</v>
       </c>
       <c r="H3">
         <v>82052296</v>
@@ -1118,8 +1020,8 @@
       <c r="I3">
         <v>8.3689999999999998</v>
       </c>
-      <c r="L3" t="s">
-        <v>70</v>
+      <c r="L3" s="5">
+        <v>19.814031502484799</v>
       </c>
       <c r="M3">
         <v>98397808</v>
@@ -1132,8 +1034,8 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>61</v>
+      <c r="B4" s="5">
+        <v>17.151256546600901</v>
       </c>
       <c r="C4">
         <v>125411176</v>
@@ -1141,8 +1043,8 @@
       <c r="D4">
         <v>13.272</v>
       </c>
-      <c r="G4" t="s">
-        <v>66</v>
+      <c r="G4" s="5">
+        <v>17.2652433034282</v>
       </c>
       <c r="H4">
         <v>120793912</v>
@@ -1150,8 +1052,8 @@
       <c r="I4">
         <v>13.855</v>
       </c>
-      <c r="L4" t="s">
-        <v>71</v>
+      <c r="L4" s="5">
+        <v>18.604212053286201</v>
       </c>
       <c r="M4">
         <v>93829328</v>
@@ -1164,8 +1066,8 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
+      <c r="B5" s="5">
+        <v>20.255298487463001</v>
       </c>
       <c r="C5">
         <v>77147992</v>
@@ -1173,8 +1075,8 @@
       <c r="D5">
         <v>17.643999999999998</v>
       </c>
-      <c r="G5" t="s">
-        <v>67</v>
+      <c r="G5" s="5">
+        <v>19.478707876667801</v>
       </c>
       <c r="H5">
         <v>64153560</v>
@@ -1182,8 +1084,8 @@
       <c r="I5">
         <v>18.986000000000001</v>
       </c>
-      <c r="L5" t="s">
-        <v>72</v>
+      <c r="L5" s="5">
+        <v>19.887425813697501</v>
       </c>
       <c r="M5">
         <v>92311400</v>
@@ -1196,8 +1098,8 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
+      <c r="B6" s="5">
+        <v>20.505779689474601</v>
       </c>
       <c r="C6">
         <v>58728056</v>
@@ -1205,8 +1107,8 @@
       <c r="D6">
         <v>34.869</v>
       </c>
-      <c r="G6" t="s">
-        <v>68</v>
+      <c r="G6" s="5">
+        <v>16.680546906996302</v>
       </c>
       <c r="H6">
         <v>126788288</v>
@@ -1214,8 +1116,8 @@
       <c r="I6">
         <v>48.499000000000002</v>
       </c>
-      <c r="L6" t="s">
-        <v>73</v>
+      <c r="L6" s="5">
+        <v>16.832699448100001</v>
       </c>
       <c r="M6">
         <v>102838688</v>
@@ -1223,13 +1125,22 @@
       <c r="N6">
         <v>47.911000000000001</v>
       </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
-        <v>74</v>
+      <c r="B9" s="5">
+        <v>10.407378912159199</v>
       </c>
       <c r="C9">
         <v>93268728</v>
@@ -1237,8 +1148,8 @@
       <c r="D9">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
-        <v>79</v>
+      <c r="G9" s="5">
+        <v>6.81833355219913</v>
       </c>
       <c r="H9">
         <v>64529880</v>
@@ -1251,8 +1162,8 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>75</v>
+      <c r="B10" s="5">
+        <v>20.732602533351798</v>
       </c>
       <c r="C10">
         <v>88182080</v>
@@ -1260,8 +1171,8 @@
       <c r="D10">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
-        <v>80</v>
+      <c r="G10" s="5">
+        <v>19.4279764970073</v>
       </c>
       <c r="H10">
         <v>66743488</v>
@@ -1274,8 +1185,8 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>76</v>
+      <c r="B11" s="5">
+        <v>18.185240991808101</v>
       </c>
       <c r="C11">
         <v>84736032</v>
@@ -1283,8 +1194,8 @@
       <c r="D11">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>81</v>
+      <c r="G11" s="5">
+        <v>18.293570756111802</v>
       </c>
       <c r="H11">
         <v>64023280</v>
@@ -1297,8 +1208,8 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>77</v>
+      <c r="B12" s="5">
+        <v>19.154777333388999</v>
       </c>
       <c r="C12">
         <v>43233144</v>
@@ -1306,8 +1217,8 @@
       <c r="D12">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
-        <v>82</v>
+      <c r="G12" s="5">
+        <v>16.4853299976762</v>
       </c>
       <c r="H12">
         <v>69757192</v>
@@ -1320,8 +1231,8 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
-        <v>78</v>
+      <c r="B13" s="5">
+        <v>19.877437159411802</v>
       </c>
       <c r="C13">
         <v>42422160</v>
@@ -1329,14 +1240,190 @@
       <c r="D13">
         <v>37</v>
       </c>
-      <c r="G13" t="s">
-        <v>83</v>
+      <c r="G13" s="5">
+        <v>13.9620032629663</v>
       </c>
       <c r="H13">
         <v>98141912</v>
       </c>
       <c r="I13">
         <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5">
+        <f>AVERAGE(B2,G2,L2,B9,G9)</f>
+        <v>13.758934230902316</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:D22" si="0">AVERAGE(C2,H2,M2,C9,H9)</f>
+        <v>73060776.400000006</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>21.437999999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <f>STDEVA(B2,G2,L2,B9,G9)</f>
+        <v>10.743216157425605</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:G18" si="1">STDEVA(C2,H2,M2,C9,H9)</f>
+        <v>13617402.715452349</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>10.754487923653089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" ref="B19:B22" si="2">AVERAGE(B3,G3,L3,B10,G10)</f>
+        <v>19.677406589028656</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>84393508.799999997</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>7.2575999999999992</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ref="E19:E22" si="3">STDEVA(B3,G3,L3,B10,G10)</f>
+        <v>1.5372606014231183</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19:F22" si="4">STDEVA(C3,H3,M3,C10,H10)</f>
+        <v>11535932.777576115</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" ref="G19:G22" si="5">STDEVA(D3,I3,N3,D10,I10)</f>
+        <v>0.62162392167612079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="2"/>
+        <v>17.899904730247041</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>97758745.599999994</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>12.947800000000001</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="3"/>
+        <v>0.65109672033745769</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="4"/>
+        <v>25585097.369045366</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="5"/>
+        <v>0.69676552727585495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="2"/>
+        <v>19.0523079017787</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>69320657.599999994</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>19.6586</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4938457717585094</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="4"/>
+        <v>18008950.730352644</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="5"/>
+        <v>2.4891630721991751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="2"/>
+        <v>17.571693293389803</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>85783820.799999997</v>
+      </c>
+      <c r="D22" s="5">
+        <f>AVERAGE(D6,I6,N6,D13,I13)</f>
+        <v>46.455799999999996</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6596726140864067</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="4"/>
+        <v>34413679.256656818</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="5"/>
+        <v>11.594797484216802</v>
       </c>
     </row>
   </sheetData>
@@ -1346,16 +1433,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2276E8E6-185C-428A-9EE2-1A99D0B4CD4D}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -1371,306 +1458,510 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
+      <c r="B2" s="5">
+        <v>16.892568448500601</v>
       </c>
       <c r="C2">
         <v>20647936</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
+      <c r="D2" s="5">
+        <v>40.5015740394592</v>
+      </c>
+      <c r="F2" s="5">
+        <v>17.011939313984101</v>
       </c>
       <c r="G2">
         <v>20725760</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
+      <c r="H2" s="5">
+        <v>36.661061525344799</v>
+      </c>
+      <c r="K2" s="5">
+        <v>17.274897959183601</v>
       </c>
       <c r="L2">
         <v>20684800</v>
       </c>
-      <c r="M2" t="s">
-        <v>39</v>
+      <c r="M2" s="5">
+        <v>37.773741245269697</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
+      <c r="B3" s="5">
+        <v>16.892568448500601</v>
       </c>
       <c r="C3">
         <v>20647936</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
+      <c r="D3" s="5">
+        <v>73.376761198043795</v>
+      </c>
+      <c r="F3" s="5">
+        <v>17.011939313984101</v>
       </c>
       <c r="G3">
         <v>20725760</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
+      <c r="H3" s="5">
+        <v>74.386658191680894</v>
+      </c>
+      <c r="K3" s="5">
+        <v>17.274897959183601</v>
       </c>
       <c r="L3">
         <v>20684800</v>
       </c>
-      <c r="M3" t="s">
-        <v>40</v>
+      <c r="M3" s="5">
+        <v>69.740692853927598</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
+      <c r="B4" s="5">
+        <v>16.892568448500601</v>
       </c>
       <c r="C4">
         <v>20647936</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
+      <c r="D4" s="5">
+        <v>105.537143945693</v>
+      </c>
+      <c r="F4" s="5">
+        <v>17.011939313984101</v>
       </c>
       <c r="G4">
         <v>20725760</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
+      <c r="H4" s="5">
+        <v>115.328786134719</v>
+      </c>
+      <c r="K4" s="5">
+        <v>17.274897959183601</v>
       </c>
       <c r="L4">
         <v>20684800</v>
       </c>
-      <c r="M4" t="s">
-        <v>41</v>
+      <c r="M4" s="5">
+        <v>106.628464460372</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
+      <c r="B5" s="5">
+        <v>16.892568448500601</v>
       </c>
       <c r="C5">
         <v>20647936</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
+      <c r="D5" s="5">
+        <v>179.152344465255</v>
+      </c>
+      <c r="F5" s="5">
+        <v>17.011939313984101</v>
       </c>
       <c r="G5">
         <v>20725760</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
+      <c r="H5" s="5">
+        <v>183.06847763061501</v>
+      </c>
+      <c r="K5" s="5">
+        <v>17.274897959183601</v>
       </c>
       <c r="L5">
         <v>20684800</v>
       </c>
-      <c r="M5" t="s">
-        <v>42</v>
+      <c r="M5" s="5">
+        <v>174.75611996650599</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
+      <c r="B6" s="5">
+        <v>16.892568448500601</v>
       </c>
       <c r="C6">
         <v>20647936</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
+      <c r="D6" s="5">
+        <v>373.53850603103598</v>
+      </c>
+      <c r="F6" s="5">
+        <v>17.011939313984101</v>
       </c>
       <c r="G6">
         <v>20725760</v>
       </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
+      <c r="H6" s="5">
+        <v>352.47862243652298</v>
+      </c>
+      <c r="K6" s="5">
+        <v>17.274897959183601</v>
       </c>
       <c r="L6">
         <v>20684800</v>
       </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
+      <c r="M6" s="5">
+        <v>350.57537627220103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>94</v>
+      <c r="B8" s="5">
+        <v>16.9782247765006</v>
       </c>
       <c r="C8">
         <v>20668416</v>
       </c>
-      <c r="D8" t="s">
-        <v>95</v>
-      </c>
+      <c r="D8" s="5">
+        <v>39.688871860504101</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>94</v>
+      <c r="B9" s="5">
+        <v>16.9782247765006</v>
       </c>
       <c r="C9">
         <v>20668416</v>
       </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
+      <c r="D9" s="5">
+        <v>73.787056207656804</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>94</v>
+      <c r="B10" s="5">
+        <v>16.9782247765006</v>
       </c>
       <c r="C10">
         <v>20668416</v>
       </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
+      <c r="D10" s="5">
+        <v>115.389216184616</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>94</v>
+      <c r="B11" s="5">
+        <v>16.9782247765006</v>
       </c>
       <c r="C11">
         <v>20668416</v>
       </c>
-      <c r="D11" t="s">
-        <v>98</v>
+      <c r="D11" s="5">
+        <v>186.180884122848</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>94</v>
+      <c r="B12" s="5">
+        <v>16.9782247765006</v>
       </c>
       <c r="C12">
         <v>20668416</v>
       </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
+      <c r="D12" s="5">
+        <v>370.36351442337002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
-        <v>94</v>
+      <c r="B14" s="5">
+        <v>16.9782247765006</v>
       </c>
       <c r="C14">
         <v>20668416</v>
       </c>
-      <c r="D14" t="s">
-        <v>100</v>
+      <c r="D14" s="5">
+        <v>39.278196573257397</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>94</v>
+      <c r="B15" s="5">
+        <v>16.9782247765006</v>
       </c>
       <c r="C15">
         <v>20668416</v>
       </c>
-      <c r="D15" t="s">
-        <v>101</v>
+      <c r="D15" s="5">
+        <v>73.568229913711505</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>94</v>
+      <c r="B16" s="5">
+        <v>16.9782247765006</v>
       </c>
       <c r="C16">
         <v>20668416</v>
       </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="5">
+        <v>111.884425878524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>94</v>
+      <c r="B17" s="5">
+        <v>16.9782247765006</v>
       </c>
       <c r="C17">
         <v>20668416</v>
       </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="5">
+        <v>185.12430453300399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
-        <v>94</v>
+      <c r="B18" s="5">
+        <v>16.9782247765006</v>
       </c>
       <c r="C18">
         <v>20668416</v>
       </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
+      <c r="D18" s="5">
+        <v>375.40462327003399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <f>AVERAGE(B2,B8,B14,F2,K2)</f>
+        <v>17.027171054933902</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" ref="C22:D26" si="0">AVERAGE(C2,C8,C14,G2,L2)</f>
+        <v>20679065.600000001</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>38.78068904876703</v>
+      </c>
+      <c r="E22" s="5">
+        <f>STDEVA(B2,F2,K2,B8,B14)</f>
+        <v>0.14535298674698802</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:G22" si="1">STDEVA(C2,G2,L2,C8,C14)</f>
+        <v>29193.879029687028</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5443865792496658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" ref="B23:B26" si="2">AVERAGE(B3,B9,B15,F3,K3)</f>
+        <v>17.027171054933902</v>
+      </c>
+      <c r="C23" s="5">
+        <f>AVERAGE(C3,C9,C15,G3,L3)</f>
+        <v>20679065.600000001</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>72.971879673004125</v>
+      </c>
+      <c r="E23" s="5">
+        <f>STDEVA(B3,F3,K3,B9,B15)</f>
+        <v>0.14535298674698802</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23:F27" si="3">STDEVA(C3,G3,L3,C9,C15)</f>
+        <v>29193.879029687028</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" ref="G23:G27" si="4">STDEVA(D3,H3,M3,D9,D15)</f>
+        <v>1.8456869966384919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="2"/>
+        <v>17.027171054933902</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>20679065.600000001</v>
+      </c>
+      <c r="D24" s="5">
+        <f>AVERAGE(D4,D10,D16,H4,M4)</f>
+        <v>110.9536073207848</v>
+      </c>
+      <c r="E24" s="5">
+        <f>STDEVA(B4,F4,K4,B10,B16)</f>
+        <v>0.14535298674698802</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="3"/>
+        <v>29193.879029687028</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="4"/>
+        <v>4.6831659988441281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="2"/>
+        <v>17.027171054933902</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>20679065.600000001</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>181.6564261436456</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ref="E23:E27" si="5">STDEVA(B5,F5,K5,B11,B17)</f>
+        <v>0.14535298674698802</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>29193.879029687028</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="4"/>
+        <v>4.7004106289004755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="2"/>
+        <v>17.027171054933902</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>20679065.600000001</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>364.47212848663287</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="5"/>
+        <v>0.14535298674698802</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="3"/>
+        <v>29193.879029687028</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="4"/>
+        <v>11.972791881028343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1679,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1962E622-2799-4935-BC50-1516B9D64079}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D21" sqref="D21:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1703,275 +1994,464 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+      <c r="B2" s="5">
+        <v>24.763592896174799</v>
       </c>
       <c r="C2">
         <v>17981440</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+      <c r="D2" s="5">
+        <v>18.401009559631301</v>
+      </c>
+      <c r="F2" s="5">
+        <v>23.315171990171901</v>
       </c>
       <c r="G2">
         <v>17768448</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
+      <c r="H2">
+        <v>37.056565761566098</v>
+      </c>
+      <c r="K2" s="5">
+        <v>24.668684210526301</v>
       </c>
       <c r="L2">
         <v>17829888</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
+      <c r="M2" s="5">
+        <v>19.359236001968299</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="5">
+        <v>24.763592896174799</v>
       </c>
       <c r="C3">
         <v>17981440</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+      <c r="D3" s="5">
+        <v>35.1758584976196</v>
+      </c>
+      <c r="F3" s="5">
+        <v>23.315171990171901</v>
       </c>
       <c r="G3">
         <v>17768448</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
+      <c r="H3">
+        <v>35.099521875381399</v>
+      </c>
+      <c r="K3" s="5">
+        <v>24.668684210526301</v>
       </c>
       <c r="L3">
         <v>17829888</v>
       </c>
-      <c r="M3" t="s">
-        <v>22</v>
+      <c r="M3" s="5">
+        <v>35.9322574138641</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="5">
+        <v>24.763592896174799</v>
       </c>
       <c r="C4">
         <v>17981440</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+      <c r="D4" s="5">
+        <v>51.853369474410997</v>
+      </c>
+      <c r="F4" s="5">
+        <v>23.315171990171901</v>
       </c>
       <c r="G4">
         <v>17768448</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
+      <c r="H4">
+        <v>51.873873472213702</v>
+      </c>
+      <c r="K4" s="5">
+        <v>24.668684210526301</v>
       </c>
       <c r="L4">
         <v>17829888</v>
       </c>
-      <c r="M4" t="s">
-        <v>23</v>
+      <c r="M4" s="5">
+        <v>53.348463058471602</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+      <c r="B5" s="5">
+        <v>24.763592896174799</v>
       </c>
       <c r="C5">
         <v>17981440</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
+      <c r="D5" s="5">
+        <v>86.745523214340196</v>
+      </c>
+      <c r="F5" s="5">
+        <v>23.315171990171901</v>
       </c>
       <c r="G5">
         <v>17768448</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
+      <c r="H5">
+        <v>96.589201688766394</v>
+      </c>
+      <c r="K5" s="5">
+        <v>24.668684210526301</v>
       </c>
       <c r="L5">
         <v>17829888</v>
       </c>
-      <c r="M5" t="s">
-        <v>24</v>
+      <c r="M5" s="5">
+        <v>94.779557466506901</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+      <c r="B6" s="5">
+        <v>24.763592896174799</v>
       </c>
       <c r="C6">
         <v>17981440</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
+      <c r="D6" s="5">
+        <v>172.688773155212</v>
+      </c>
+      <c r="F6" s="5">
+        <v>23.315171990171901</v>
       </c>
       <c r="G6">
         <v>17768448</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
+      <c r="H6">
+        <v>184.22116613387999</v>
+      </c>
+      <c r="K6" s="5">
+        <v>24.668684210526301</v>
       </c>
       <c r="L6">
         <v>17829888</v>
       </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
+      <c r="M6" s="5">
+        <v>175.60588979721001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>105</v>
+      <c r="B10" s="5">
+        <v>23.3169239904988</v>
       </c>
       <c r="C10">
         <v>17842176</v>
       </c>
-      <c r="D10" t="s">
-        <v>106</v>
+      <c r="D10" s="5">
+        <v>43.689518451690603</v>
+      </c>
+      <c r="F10" s="5">
+        <v>24.7435750636132</v>
+      </c>
+      <c r="G10">
+        <v>17866752</v>
+      </c>
+      <c r="H10" s="5">
+        <v>20.2687218189239</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>105</v>
+      <c r="B11" s="5">
+        <v>23.3169239904988</v>
       </c>
       <c r="C11">
         <v>17842176</v>
       </c>
-      <c r="D11" t="s">
-        <v>107</v>
+      <c r="D11" s="5">
+        <v>37.949649333953801</v>
+      </c>
+      <c r="F11" s="5">
+        <v>24.7435750636132</v>
+      </c>
+      <c r="G11">
+        <v>17866752</v>
+      </c>
+      <c r="H11" s="5">
+        <v>37.962971925735403</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>105</v>
+      <c r="B12" s="5">
+        <v>23.3169239904988</v>
       </c>
       <c r="C12">
         <v>17842176</v>
       </c>
-      <c r="D12" t="s">
-        <v>108</v>
+      <c r="D12" s="5">
+        <v>56.623655080795203</v>
+      </c>
+      <c r="F12" s="5">
+        <v>24.7435750636132</v>
+      </c>
+      <c r="G12">
+        <v>17866752</v>
+      </c>
+      <c r="H12" s="5">
+        <v>56.210859537124598</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>105</v>
+      <c r="B13" s="5">
+        <v>23.3169239904988</v>
       </c>
       <c r="C13">
         <v>17842176</v>
       </c>
-      <c r="D13" t="s">
-        <v>109</v>
+      <c r="D13" s="5">
+        <v>93.325709104537907</v>
+      </c>
+      <c r="F13" s="5">
+        <v>24.7435750636132</v>
+      </c>
+      <c r="G13">
+        <v>17866752</v>
+      </c>
+      <c r="H13" s="5">
+        <v>93.108636617660494</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>105</v>
+      <c r="B14" s="5">
+        <v>23.3169239904988</v>
       </c>
       <c r="C14">
         <v>17842176</v>
       </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17">
+      <c r="D14" s="5">
+        <v>188.436112403869</v>
+      </c>
+      <c r="F14" s="5">
+        <v>24.7435750636132</v>
+      </c>
+      <c r="G14">
         <v>17866752</v>
       </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18">
-        <v>17866752</v>
-      </c>
-      <c r="D18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19">
-        <v>17866752</v>
-      </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20">
-        <v>17866752</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21">
-        <v>17866752</v>
-      </c>
-      <c r="D21" t="s">
-        <v>116</v>
+      <c r="H14" s="5">
+        <v>184.09007310867301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <f>AVERAGE(B2,F2,K2,B10,F10)</f>
+        <v>24.161589630197</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23:D27" si="0">AVERAGE(C2,G2,L2,C10,G10)</f>
+        <v>17857740.800000001</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>27.755010318756042</v>
+      </c>
+      <c r="E23" s="5">
+        <f>STDEVA(B2,F2,K2,B10,F10)</f>
+        <v>0.77268084526995284</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23:G27" si="1">STDEVA(C2,G2,L2,C10,G10)</f>
+        <v>78060.776649992418</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
+        <v>11.773469700741204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" ref="B24:B27" si="2">AVERAGE(B3,F3,K3,B11,F11)</f>
+        <v>24.161589630197</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>17857740.800000001</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>36.424051809310853</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:E27" si="3">STDEVA(B3,F3,K3,B11,F11)</f>
+        <v>0.77268084526995284</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="1"/>
+        <v>78060.776649992418</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4361363748397658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="2"/>
+        <v>24.161589630197</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>17857740.800000001</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>53.982044124603213</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.77268084526995284</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="1"/>
+        <v>78060.776649992418</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
+        <v>2.308830375985548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="2"/>
+        <v>24.161589630197</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>17857740.800000001</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>92.909725618362387</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="3"/>
+        <v>0.77268084526995284</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
+        <v>78060.776649992418</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>3.7163427727127352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="2"/>
+        <v>24.161589630197</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>17857740.800000001</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>181.0084029197688</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="3"/>
+        <v>0.77268084526995284</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="1"/>
+        <v>78060.776649992418</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>6.5839348846650658</v>
       </c>
     </row>
   </sheetData>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48783\Desktop\mgr1\OESKlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE4E0C8-2A04-499D-A06A-8541C992FA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3236DC55-922A-4317-B0FD-A639844A1368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2EB115F-A871-483F-9529-A00E57D6095F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F2EB115F-A871-483F-9529-A00E57D6095F}"/>
   </bookViews>
   <sheets>
     <sheet name="java + mongo" sheetId="1" r:id="rId1"/>
-    <sheet name="java + sqlite" sheetId="3" r:id="rId2"/>
-    <sheet name="python + mongodb" sheetId="2" r:id="rId3"/>
-    <sheet name="python + sqlit" sheetId="4" r:id="rId4"/>
+    <sheet name="Analiza" sheetId="5" r:id="rId2"/>
+    <sheet name="java + sqlite" sheetId="3" r:id="rId3"/>
+    <sheet name="python + mongodb" sheetId="2" r:id="rId4"/>
+    <sheet name="python + sqlit" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
   <si>
     <t>50sample</t>
   </si>
@@ -82,6 +83,12 @@
   </si>
   <si>
     <t>s czas</t>
+  </si>
+  <si>
+    <t>[MB]</t>
+  </si>
+  <si>
+    <t>memory[MB]</t>
   </si>
 </sst>
 </file>
@@ -153,6 +160,6194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Średnie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> wykorzystanie procesora</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Java + Mongo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.960736837412508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1471429516711824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8071653150749878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8484611737530958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8922686942015519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB2E-42BC-8FD0-7EABEFD2524E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java + SQLite</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'java + sqlite'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.758934230902316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.677406589028656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.899904730247041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.0523079017787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.571693293389803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FB2E-42BC-8FD0-7EABEFD2524E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Python + MongoDB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'python + mongodb'!$B$22:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.027171054933902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.027171054933902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.027171054933902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.027171054933902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.027171054933902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FB2E-42BC-8FD0-7EABEFD2524E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Python + SQLite</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'python + sqlit'!$B$23:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.161589630197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.161589630197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.161589630197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.161589630197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.161589630197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FB2E-42BC-8FD0-7EABEFD2524E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460209328"/>
+        <c:axId val="460210288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460209328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rozmiar pliku</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460210288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460210288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wykorzytsanie</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> procesora[%]</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460209328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Średnie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> wykorzystanie procesora</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Java + Mongo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'java + mongo'!$E$17:$E$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.8220856614994623</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.5429479423002781</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.298426793201227</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1469785371110483</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.10434638531601098</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'java + mongo'!$E$17:$E$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.8220856614994623</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.5429479423002781</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.298426793201227</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1469785371110483</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.10434638531601098</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.960736837412508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1471429516711824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8071653150749878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8484611737530958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8922686942015519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64CA-4C1F-BAB6-49C2BECAF75B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java + SQLite</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'java + sqlite'!$E$18:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>10.743216157425605</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5372606014231183</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.65109672033745769</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4938457717585094</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6596726140864067</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'java + sqlite'!$E$18:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>10.743216157425605</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5372606014231183</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.65109672033745769</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4938457717585094</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6596726140864067</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'java + sqlite'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.758934230902316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.677406589028656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.899904730247041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.0523079017787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.571693293389803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-64CA-4C1F-BAB6-49C2BECAF75B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Python + MongoDB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'python + mongodb'!$E$22:$E$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.14535298674698802</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14535298674698802</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14535298674698802</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.14535298674698802</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.14535298674698802</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'python + mongodb'!$E$22:$E$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.14535298674698802</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14535298674698802</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14535298674698802</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.14535298674698802</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.14535298674698802</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdDev"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'python + mongodb'!$B$22:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.027171054933902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.027171054933902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.027171054933902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.027171054933902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.027171054933902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-64CA-4C1F-BAB6-49C2BECAF75B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Python + SQLite</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'python + sqlit'!$E$23:$E$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.77268084526995284</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.77268084526995284</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.77268084526995284</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.77268084526995284</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.77268084526995284</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'python + sqlit'!$E$23:$E$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.77268084526995284</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.77268084526995284</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.77268084526995284</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.77268084526995284</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.77268084526995284</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'python + sqlit'!$B$23:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.161589630197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.161589630197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.161589630197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.161589630197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.161589630197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-64CA-4C1F-BAB6-49C2BECAF75B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460209328"/>
+        <c:axId val="460210288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460209328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rozmiar pliku</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460210288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460210288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wykorzytsanie</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> procesora[%]</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460209328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Średni</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> rozmiar wykorzystywanej pamięci</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Java + Mongo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'java + mongo'!$F$23:$F$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>21.691532724873806</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>29.233933910451164</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.330057799081354</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18.161201681536618</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>22.692767986435427</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'java + mongo'!$F$23:$F$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>21.691532724873806</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>29.233933910451164</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.330057799081354</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18.161201681536618</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>22.692767986435427</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$C$23:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60.552547762080003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.124478292480006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.46402732208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.517511648320003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.814486573760007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF40-4E28-B4EF-51E868E85BF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java + SQLite</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'java + sqlite'!$F$24:$F$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.986916969726906</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.001819089974342</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>24.400507360858565</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17.175136311537319</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>32.82032590707361</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'java + sqlite'!$F$24:$F$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.986916969726906</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.001819089974342</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>24.400507360858565</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17.175136311537319</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>32.82032590707361</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'java + sqlite'!$C$24:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>69.67806245268001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.486089342560007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.232515678720006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.111111153120007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.812029896959999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF40-4E28-B4EF-51E868E85BF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Python + MongoDB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdDev"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'python + mongodb'!$C$28:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.721624862720002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.721624862720002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.721624862720002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.721624862720002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.721624862720002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF40-4E28-B4EF-51E868E85BF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Python + SQLite</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'python + sqlit'!$F$29:$F$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.444656269109777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.444656269109777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.444656269109777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.444656269109777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.444656269109777E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'python + sqlit'!$F$29:$F$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.444656269109777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.444656269109777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.444656269109777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.444656269109777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.444656269109777E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'python + sqlit'!$C$29:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.030927400960003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.030927400960003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.030927400960003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.030927400960003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.030927400960003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AF40-4E28-B4EF-51E868E85BF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460209328"/>
+        <c:axId val="460210288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460209328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rozmiar pliku</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460210288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460210288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t>Pamięć [MB]</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460209328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Średni</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> czas wykonywania</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Java + Mongo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'java + mongo'!$G$17:$G$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.0954451150103324</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5811388300841898</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0736441353327724</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.049590136395381</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.8566201857385289</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'java + mongo'!$G$17:$G$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.0954451150103324</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5811388300841898</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0736441353327724</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.049590136395381</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.8566201857385289</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B629-4AC1-9B78-92E679E7A996}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java + SQLite</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'java + sqlite'!$G$18:$G$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>10.754487923653089</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.62162392167612079</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.69676552727585495</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4891630721991751</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11.594797484216802</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'java + sqlite'!$G$18:$G$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>10.754487923653089</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.62162392167612079</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.69676552727585495</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4891630721991751</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11.594797484216802</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'java + sqlite'!$D$18:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.437999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2575999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.947800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.6586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.455799999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B629-4AC1-9B78-92E679E7A996}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Python + MongoDB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'python + mongodb'!$G$22:$G$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.5443865792496658</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8456869966384919</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6831659988441281</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7004106289004755</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11.972791881028343</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'python + mongodb'!$G$22:$G$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.5443865792496658</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8456869966384919</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6831659988441281</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7004106289004755</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11.972791881028343</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'python + mongodb'!$D$22:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38.78068904876703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.971879673004125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.9536073207848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181.6564261436456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>364.47212848663287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B629-4AC1-9B78-92E679E7A996}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Python + SQLite</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'python + sqlit'!$G$23:$G$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>11.773469700741204</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4361363748397658</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.308830375985548</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.7163427727127352</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.5839348846650658</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'python + sqlit'!$G$23:$G$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>11.773469700741204</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4361363748397658</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.308830375985548</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.7163427727127352</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.5839348846650658</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'java + mongo'!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'python + sqlit'!$D$23:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27.755010318756042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.424051809310853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.982044124603213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.909725618362387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.0084029197688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B629-4AC1-9B78-92E679E7A996}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460209328"/>
+        <c:axId val="460210288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460209328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rozmiar pliku</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460210288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460210288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" baseline="0"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460209328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>975360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1188720</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93254388-146C-456F-AF25-A7F919C24B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFA0FCF-15FB-4C42-9C6C-9ACE8927FE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B98219A-7741-4945-9B52-F2FEEB13AF32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0CF159-75F4-45E6-86A7-25D1EB127FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,10 +6647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5BB9F7-B28B-4A5F-B0C6-3497BC3E7602}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,6 +6849,9 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>50</v>
+      </c>
       <c r="B9" s="2">
         <v>11.7433290143256</v>
       </c>
@@ -674,6 +6872,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100</v>
+      </c>
       <c r="B10" s="2">
         <v>7.9207288678267602</v>
       </c>
@@ -694,6 +6895,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>150</v>
+      </c>
       <c r="B11" s="2">
         <v>9.3342266145696904</v>
       </c>
@@ -714,6 +6918,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>250</v>
+      </c>
       <c r="B12" s="2">
         <v>6.9167711599276203</v>
       </c>
@@ -734,6 +6941,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>500</v>
+      </c>
       <c r="B13" s="2">
         <v>6.8074551718510099</v>
       </c>
@@ -847,7 +7057,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" ref="B18:B21" si="3">AVERAGE(B4,G4,K4,B11,G11)</f>
+        <f t="shared" ref="B19:B21" si="3">AVERAGE(B4,G4,K4,B11,G11)</f>
         <v>7.8071653150749878</v>
       </c>
       <c r="C19" s="5">
@@ -929,17 +7139,113 @@
         <v>5.8566201857385289</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <f>9.537*10^-7</f>
+        <v>9.5370000000000008E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <f>C17*$D$22</f>
+        <v>60.552547762080003</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23" si="4">F17*$D$22</f>
+        <v>21.691532724873806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:C27" si="5">C18*$D$22</f>
+        <v>63.124478292480006</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24" si="6">F18*$D$22</f>
+        <v>29.233933910451164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="5"/>
+        <v>52.46402732208</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25" si="7">F19*$D$22</f>
+        <v>10.330057799081354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="5"/>
+        <v>59.517511648320003</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26" si="8">F20*$D$22</f>
+        <v>18.161201681536618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="5"/>
+        <v>64.814486573760007</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27" si="9">F21*$D$22</f>
+        <v>22.692767986435427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECD75DF-14E8-47EA-BAB4-682ED0EE0286}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8435A31-D177-4564-AE34-59DF2A7AB7DC}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,17 +7732,87 @@
         <v>11.594797484216802</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <f>9.537*10^-7</f>
+        <v>9.5370000000000008E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="5">
+        <f>C18*$D$23</f>
+        <v>69.67806245268001</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24" si="6">F18*$D$23</f>
+        <v>12.986916969726906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <f t="shared" ref="C25:C28" si="7">C19*$D$23</f>
+        <v>80.486089342560007</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25" si="8">F19*$D$23</f>
+        <v>11.001819089974342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="5">
+        <f t="shared" si="7"/>
+        <v>93.232515678720006</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26" si="9">F20*$D$23</f>
+        <v>24.400507360858565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="5">
+        <f t="shared" si="7"/>
+        <v>66.111111153120007</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27" si="10">F21*$D$23</f>
+        <v>17.175136311537319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="5">
+        <f t="shared" si="7"/>
+        <v>81.812029896959999</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28" si="11">F22*$D$23</f>
+        <v>32.82032590707361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2276E8E6-185C-428A-9EE2-1A99D0B4CD4D}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1863,11 +8239,11 @@
         <v>0.14535298674698802</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" ref="F23:F27" si="3">STDEVA(C3,G3,L3,C9,C15)</f>
+        <f t="shared" ref="F23:F26" si="3">STDEVA(C3,G3,L3,C9,C15)</f>
         <v>29193.879029687028</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" ref="G23:G27" si="4">STDEVA(D3,H3,M3,D9,D15)</f>
+        <f t="shared" ref="G23:G26" si="4">STDEVA(D3,H3,M3,D9,D15)</f>
         <v>1.8456869966384919</v>
       </c>
     </row>
@@ -1917,7 +8293,7 @@
         <v>181.6564261436456</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E23:E27" si="5">STDEVA(B5,F5,K5,B11,B17)</f>
+        <f t="shared" ref="E25:E26" si="5">STDEVA(B5,F5,K5,B11,B17)</f>
         <v>0.14535298674698802</v>
       </c>
       <c r="F25" s="5">
@@ -1959,21 +8335,91 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <f>9.537*10^-7</f>
+        <v>9.5370000000000008E-7</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="5">
+        <f>C22*$D$27</f>
+        <v>19.721624862720002</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28" si="6">F22*$D$27</f>
+        <v>2.7842202430612521E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="5">
+        <f t="shared" ref="C29:F32" si="7">C23*$D$27</f>
+        <v>19.721624862720002</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7842202430612521E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="5">
+        <f t="shared" si="7"/>
+        <v>19.721624862720002</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7842202430612521E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="5">
+        <f t="shared" si="7"/>
+        <v>19.721624862720002</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7842202430612521E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="5">
+        <f t="shared" si="7"/>
+        <v>19.721624862720002</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7842202430612521E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1962E622-2799-4935-BC50-1516B9D64079}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:G27"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2454,6 +8900,78 @@
         <v>6.5839348846650658</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <f>9.537*10^-7</f>
+        <v>9.5370000000000008E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="5">
+        <f>C23*$D$28</f>
+        <v>17.030927400960003</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <f t="shared" ref="F29" si="4">F23*$D$28</f>
+        <v>7.444656269109777E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="5">
+        <f t="shared" ref="C30:F30" si="5">C24*$D$28</f>
+        <v>17.030927400960003</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <f t="shared" si="5"/>
+        <v>7.444656269109777E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="5">
+        <f t="shared" ref="C31:F31" si="6">C25*$D$28</f>
+        <v>17.030927400960003</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <f t="shared" si="6"/>
+        <v>7.444656269109777E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="5">
+        <f t="shared" ref="C32:F32" si="7">C26*$D$28</f>
+        <v>17.030927400960003</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <f t="shared" si="7"/>
+        <v>7.444656269109777E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="5">
+        <f t="shared" ref="C33:F33" si="8">C27*$D$28</f>
+        <v>17.030927400960003</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <f t="shared" si="8"/>
+        <v>7.444656269109777E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48783\Desktop\mgr1\OESKlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3236DC55-922A-4317-B0FD-A639844A1368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC41B04D-4640-4B5F-8939-BEFF0179834F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F2EB115F-A871-483F-9529-A00E57D6095F}"/>
+    <workbookView xWindow="7548" yWindow="972" windowWidth="13140" windowHeight="9876" activeTab="2" xr2:uid="{F2EB115F-A871-483F-9529-A00E57D6095F}"/>
   </bookViews>
   <sheets>
     <sheet name="java + mongo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="python + mongodb" sheetId="2" r:id="rId4"/>
     <sheet name="python + sqlit" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3301,7 +3301,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21.437999999999999</c:v>
+                  <c:v>5.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.2575999999999992</c:v>
@@ -6649,8 +6649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5BB9F7-B28B-4A5F-B0C6-3497BC3E7602}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7229,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECD75DF-14E8-47EA-BAB4-682ED0EE0286}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7244,8 +7244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8435A31-D177-4564-AE34-59DF2A7AB7DC}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7600,8 +7600,8 @@
         <v>73060776.400000006</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>21.437999999999999</v>
+        <f>5.44</f>
+        <v>5.44</v>
       </c>
       <c r="E18" s="5">
         <f>STDEVA(B2,G2,L2,B9,G9)</f>
